--- a/myFiles/portfolio_test.xlsx
+++ b/myFiles/portfolio_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="input_timestamp" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ticker</t>
   </si>
@@ -19,13 +19,16 @@
     <t>shares</t>
   </si>
   <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>dfadfsad</t>
+    <t>APPL</t>
+  </si>
+  <si>
+    <t>dfadsfas</t>
+  </si>
+  <si>
+    <t>TsLa</t>
+  </si>
+  <si>
+    <t>QQQ</t>
   </si>
 </sst>
 </file>
@@ -42,11 +45,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,32 +66,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -307,55 +308,48 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="B2" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>-2.0</v>
-      </c>
+      <c r="B3" s="3">
+        <v>-15.0</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45.0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B16 C5:D16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/myFiles/portfolio_test.xlsx
+++ b/myFiles/portfolio_test.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>ticker</t>
+    <t>tickers</t>
   </si>
   <si>
     <t>shares</t>
@@ -71,10 +71,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -305,14 +305,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
@@ -322,7 +322,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
@@ -332,14 +332,14 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>25.0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
